--- a/grades3In1.xlsx
+++ b/grades3In1.xlsx
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -491,14 +491,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,25 +536,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,22 +561,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -580,19 +574,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,16 +589,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,11 +612,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -643,181 +643,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +878,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -908,30 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -952,15 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -975,150 +960,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1915,7 +1915,9 @@
       <c r="D26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
@@ -1981,7 +1983,9 @@
       <c r="D30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
@@ -1996,7 +2000,9 @@
       <c r="D31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
@@ -2011,7 +2017,9 @@
       <c r="D32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
@@ -2026,7 +2034,9 @@
       <c r="D33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
